--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_15.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_15.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Momoko Endo</t>
+          <t>Shohei Ota</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
